--- a/ShareSkillpag-TestCases.xlsx
+++ b/ShareSkillpag-TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achakote\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79FE37-2B40-47A4-BB0A-73686E746545}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A7372-74C1-4F62-AE80-2A65AA490859}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -1530,6 +1530,15 @@
   </si>
   <si>
     <t>Validate "Active" on  Share Skill Page</t>
+  </si>
+  <si>
+    <t>User should be able to add "Discription"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to Cancel after filling all details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user is able to "Save" all vaild date </t>
   </si>
 </sst>
 </file>
@@ -1742,27 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1774,6 +1762,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2115,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -2379,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB261"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2446,13 +2455,13 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2466,9 +2475,9 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="12" t="s">
         <v>59</v>
       </c>
@@ -2480,9 +2489,9 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>41</v>
@@ -2492,9 +2501,9 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4" t="s">
         <v>35</v>
@@ -2504,17 +2513,17 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="12"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
@@ -2523,13 +2532,13 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -2543,9 +2552,9 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
@@ -2557,9 +2566,9 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="11"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
@@ -2569,9 +2578,9 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="11"/>
       <c r="E12" s="4" t="s">
         <v>36</v>
@@ -2581,9 +2590,9 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="11"/>
       <c r="E13" s="4" t="s">
         <v>38</v>
@@ -2596,13 +2605,13 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="43">
+      <c r="A15" s="45">
         <v>3</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2616,9 +2625,9 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="12" t="s">
         <v>59</v>
       </c>
@@ -2630,9 +2639,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4" t="s">
         <v>41</v>
@@ -2642,9 +2651,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="11" t="s">
         <v>67</v>
       </c>
@@ -2656,13 +2665,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="43">
+      <c r="A20" s="45">
         <v>4</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="47" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2676,9 +2685,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="12" t="s">
         <v>59</v>
       </c>
@@ -2690,9 +2699,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="11"/>
       <c r="E22" s="4" t="s">
         <v>41</v>
@@ -2702,9 +2711,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="11" t="s">
         <v>61</v>
       </c>
@@ -2723,13 +2732,13 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="43">
+      <c r="A25" s="45">
         <v>5</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="46" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -2743,9 +2752,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="12" t="s">
         <v>59</v>
       </c>
@@ -2757,9 +2766,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="11"/>
       <c r="E27" s="4" t="s">
         <v>41</v>
@@ -2769,9 +2778,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="11" t="s">
         <v>62</v>
       </c>
@@ -2783,13 +2792,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="43">
+      <c r="A30" s="45">
         <v>6</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="46" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -2803,9 +2812,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="12" t="s">
         <v>59</v>
       </c>
@@ -2817,9 +2826,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="11"/>
       <c r="E32" s="4" t="s">
         <v>41</v>
@@ -2829,9 +2838,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2843,13 +2852,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="48">
         <v>7</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="46" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -2863,9 +2872,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="42"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="12" t="s">
         <v>59</v>
       </c>
@@ -2877,9 +2886,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="11"/>
       <c r="E37" s="4" t="s">
         <v>41</v>
@@ -2889,9 +2898,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="11" t="s">
         <v>69</v>
       </c>
@@ -2903,13 +2912,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="43">
+      <c r="A40" s="45">
         <v>8</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="46" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -2923,9 +2932,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="15" t="s">
         <v>59</v>
       </c>
@@ -2937,9 +2946,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="42"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="11"/>
       <c r="E42" s="4" t="s">
         <v>41</v>
@@ -2949,9 +2958,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="11"/>
       <c r="E43" s="5" t="s">
         <v>75</v>
@@ -2965,13 +2974,13 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="43">
+      <c r="A45" s="45">
         <v>9</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -2985,9 +2994,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="15" t="s">
         <v>59</v>
       </c>
@@ -2999,9 +3008,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="11"/>
       <c r="E47" s="4" t="s">
         <v>41</v>
@@ -3011,9 +3020,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="42"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="11"/>
       <c r="E48" s="5" t="s">
         <v>80</v>
@@ -3023,13 +3032,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="43">
+      <c r="A50" s="45">
         <v>10</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D50" s="15" t="s">
@@ -3043,9 +3052,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="15" t="s">
         <v>59</v>
       </c>
@@ -3057,9 +3066,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="41"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="13"/>
       <c r="E52" s="4" t="s">
         <v>41</v>
@@ -3069,9 +3078,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="41"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="13" t="s">
         <v>67</v>
       </c>
@@ -3083,9 +3092,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="41"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="10" t="s">
         <v>83</v>
       </c>
@@ -3102,13 +3111,13 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="43">
+      <c r="A56" s="45">
         <v>11</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="47" t="s">
         <v>87</v>
       </c>
       <c r="D56" s="15" t="s">
@@ -3122,9 +3131,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="15" t="s">
         <v>59</v>
       </c>
@@ -3136,9 +3145,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="41"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="13"/>
       <c r="E58" s="4" t="s">
         <v>41</v>
@@ -3148,9 +3157,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="41"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="13" t="s">
         <v>67</v>
       </c>
@@ -3162,9 +3171,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="41"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="13" t="s">
         <v>88</v>
       </c>
@@ -3182,13 +3191,13 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="43">
+      <c r="A62" s="45">
         <v>12</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="47" t="s">
         <v>93</v>
       </c>
       <c r="D62" s="15" t="s">
@@ -3202,9 +3211,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="15" t="s">
         <v>59</v>
       </c>
@@ -3216,9 +3225,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="13"/>
       <c r="E64" s="4" t="s">
         <v>41</v>
@@ -3228,9 +3237,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="13" t="s">
         <v>67</v>
       </c>
@@ -3242,9 +3251,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="13" t="s">
         <v>94</v>
       </c>
@@ -3262,13 +3271,13 @@
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="43">
+      <c r="A68" s="45">
         <v>13</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="47" t="s">
         <v>98</v>
       </c>
       <c r="D68" s="15" t="s">
@@ -3282,9 +3291,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="43"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="15" t="s">
         <v>59</v>
       </c>
@@ -3296,9 +3305,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="43"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="13"/>
       <c r="E70" s="4" t="s">
         <v>41</v>
@@ -3308,9 +3317,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="43"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="13" t="s">
         <v>67</v>
       </c>
@@ -3322,9 +3331,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="13" t="s">
         <v>99</v>
       </c>
@@ -3341,13 +3350,13 @@
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="43">
+      <c r="A74" s="45">
         <v>14</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D74" s="15" t="s">
@@ -3361,9 +3370,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="42"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="15" t="s">
         <v>59</v>
       </c>
@@ -3375,9 +3384,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="13"/>
       <c r="E76" s="4" t="s">
         <v>41</v>
@@ -3387,9 +3396,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="42"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="13" t="s">
         <v>67</v>
       </c>
@@ -3401,9 +3410,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="42"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -3421,13 +3430,13 @@
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="43">
+      <c r="A80" s="45">
         <v>15</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="47" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="15" t="s">
@@ -3441,9 +3450,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="41"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="15" t="s">
         <v>59</v>
       </c>
@@ -3455,9 +3464,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="41"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="13"/>
       <c r="E82" s="4" t="s">
         <v>41</v>
@@ -3467,9 +3476,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="41"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="13" t="s">
         <v>67</v>
       </c>
@@ -3481,9 +3490,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="41"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="13"/>
       <c r="E84" s="5" t="s">
         <v>111</v>
@@ -3499,13 +3508,13 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="43">
+      <c r="A86" s="45">
         <v>16</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D86" s="15" t="s">
@@ -3519,9 +3528,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="42"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="15" t="s">
         <v>59</v>
       </c>
@@ -3533,9 +3542,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="42"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="46"/>
       <c r="D88" s="13"/>
       <c r="E88" s="4" t="s">
         <v>41</v>
@@ -3545,9 +3554,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="42"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="13" t="s">
         <v>67</v>
       </c>
@@ -3559,9 +3568,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="42"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="13"/>
       <c r="E90" s="5" t="s">
         <v>112</v>
@@ -3578,13 +3587,13 @@
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="43">
+      <c r="A92" s="45">
         <v>17</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="46" t="s">
         <v>114</v>
       </c>
       <c r="D92" s="18" t="s">
@@ -3598,9 +3607,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="18" t="s">
         <v>59</v>
       </c>
@@ -3612,9 +3621,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="42"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="17"/>
       <c r="E94" s="4" t="s">
         <v>41</v>
@@ -3624,9 +3633,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="42"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="17" t="s">
         <v>67</v>
       </c>
@@ -3637,24 +3646,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="42"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="46"/>
       <c r="D96" s="17" t="s">
         <v>115</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="42"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="17" t="s">
         <v>116</v>
       </c>
@@ -3673,13 +3682,13 @@
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="43">
+      <c r="A99" s="45">
         <v>18</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="46" t="s">
         <v>120</v>
       </c>
       <c r="D99" s="18" t="s">
@@ -3693,9 +3702,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="42"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="18" t="s">
         <v>59</v>
       </c>
@@ -3707,9 +3716,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="42"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
       <c r="D101" s="17"/>
       <c r="E101" s="4" t="s">
         <v>41</v>
@@ -3719,9 +3728,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="42"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="46"/>
       <c r="D102" s="17" t="s">
         <v>67</v>
       </c>
@@ -3733,9 +3742,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="42"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
       <c r="D103" s="17" t="s">
         <v>115</v>
       </c>
@@ -3747,9 +3756,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="42"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="17"/>
       <c r="E104" s="5" t="s">
         <v>124</v>
@@ -3759,13 +3768,13 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="43">
+      <c r="A106" s="45">
         <v>19</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="46" t="s">
         <v>123</v>
       </c>
       <c r="D106" s="18" t="s">
@@ -3779,9 +3788,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="42"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="18" t="s">
         <v>59</v>
       </c>
@@ -3793,9 +3802,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="42"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="46"/>
       <c r="D108" s="17"/>
       <c r="E108" s="4" t="s">
         <v>41</v>
@@ -3805,9 +3814,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="42"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="46"/>
       <c r="D109" s="17" t="s">
         <v>67</v>
       </c>
@@ -3818,24 +3827,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="42"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="46"/>
       <c r="D110" s="17" t="s">
         <v>115</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="42"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46"/>
       <c r="D111" s="17"/>
       <c r="E111" s="5" t="s">
         <v>121</v>
@@ -3845,9 +3854,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="43"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="42"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="11"/>
       <c r="E112" s="5" t="s">
         <v>30</v>
@@ -3857,13 +3866,13 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="43">
+      <c r="A114" s="45">
         <v>20</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="42" t="s">
+      <c r="C114" s="46" t="s">
         <v>128</v>
       </c>
       <c r="D114" s="21" t="s">
@@ -3877,9 +3886,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="43"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="42"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="46"/>
       <c r="D115" s="21" t="s">
         <v>59</v>
       </c>
@@ -3891,9 +3900,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="43"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="42"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="46"/>
       <c r="D116" s="19"/>
       <c r="E116" s="4" t="s">
         <v>41</v>
@@ -3903,9 +3912,9 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="42"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="19" t="s">
         <v>67</v>
       </c>
@@ -3916,24 +3925,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="42"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="46"/>
       <c r="D118" s="19" t="s">
         <v>115</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="43"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="42"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="46"/>
       <c r="D119" s="19" t="s">
         <v>116</v>
       </c>
@@ -3945,7 +3954,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="43"/>
+      <c r="A120" s="45"/>
       <c r="D120" s="10" t="s">
         <v>129</v>
       </c>
@@ -3961,13 +3970,13 @@
       <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="43">
+      <c r="A122" s="45">
         <v>21</v>
       </c>
-      <c r="B122" s="43" t="s">
+      <c r="B122" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="42" t="s">
+      <c r="C122" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D122" s="26" t="s">
@@ -3981,9 +3990,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="42"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="26" t="s">
         <v>59</v>
       </c>
@@ -3995,9 +4004,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="43"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="42"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="25"/>
       <c r="E124" s="4" t="s">
         <v>41</v>
@@ -4007,9 +4016,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="42"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="46"/>
       <c r="D125" s="25" t="s">
         <v>67</v>
       </c>
@@ -4020,24 +4029,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="42"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="46"/>
       <c r="D126" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="42"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="46"/>
       <c r="D127" s="25" t="s">
         <v>116</v>
       </c>
@@ -4049,9 +4058,9 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="42"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="46"/>
       <c r="E128" s="5" t="s">
         <v>135</v>
       </c>
@@ -4065,13 +4074,13 @@
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="43">
+      <c r="A130" s="45">
         <v>22</v>
       </c>
-      <c r="B130" s="43" t="s">
+      <c r="B130" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="41" t="s">
+      <c r="C130" s="47" t="s">
         <v>137</v>
       </c>
       <c r="D130" s="28" t="s">
@@ -4085,9 +4094,9 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="41"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="28" t="s">
         <v>59</v>
       </c>
@@ -4099,9 +4108,9 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="41"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="47"/>
       <c r="D132" s="27"/>
       <c r="E132" s="4" t="s">
         <v>41</v>
@@ -4111,9 +4120,9 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="41"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="47"/>
       <c r="D133" s="27" t="s">
         <v>67</v>
       </c>
@@ -4124,24 +4133,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="41"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="47"/>
       <c r="D134" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="41"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="27" t="s">
         <v>116</v>
       </c>
@@ -4153,9 +4162,9 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="41"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="47"/>
       <c r="E136" s="5" t="s">
         <v>138</v>
       </c>
@@ -4171,13 +4180,13 @@
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="43">
+      <c r="A138" s="45">
         <v>23</v>
       </c>
-      <c r="B138" s="43" t="s">
+      <c r="B138" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="42" t="s">
+      <c r="C138" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D138" s="32" t="s">
@@ -4191,9 +4200,9 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="42"/>
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="46"/>
       <c r="D139" s="32" t="s">
         <v>59</v>
       </c>
@@ -4205,9 +4214,9 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="42"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="46"/>
       <c r="D140" s="30"/>
       <c r="E140" s="4" t="s">
         <v>41</v>
@@ -4217,9 +4226,9 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="42"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="46"/>
       <c r="D141" s="30" t="s">
         <v>67</v>
       </c>
@@ -4230,24 +4239,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="43"/>
-      <c r="B142" s="43"/>
-      <c r="C142" s="42"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="46"/>
       <c r="D142" s="30" t="s">
         <v>115</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="42"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="46"/>
       <c r="D143" s="30" t="s">
         <v>116</v>
       </c>
@@ -4259,9 +4268,9 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="42"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="46"/>
       <c r="D144" s="10" t="s">
         <v>129</v>
       </c>
@@ -4273,7 +4282,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="43"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="29"/>
       <c r="C145" s="30"/>
       <c r="D145" s="10" t="s">
@@ -4287,13 +4296,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="43">
+      <c r="A147" s="45">
         <v>24</v>
       </c>
-      <c r="B147" s="43" t="s">
+      <c r="B147" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="42" t="s">
+      <c r="C147" s="46" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="32" t="s">
@@ -4307,9 +4316,9 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
-      <c r="C148" s="42"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="46"/>
       <c r="D148" s="32" t="s">
         <v>59</v>
       </c>
@@ -4321,9 +4330,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="42"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="46"/>
       <c r="D149" s="30"/>
       <c r="E149" s="4" t="s">
         <v>41</v>
@@ -4333,9 +4342,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="42"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="46"/>
       <c r="D150" s="30" t="s">
         <v>67</v>
       </c>
@@ -4346,24 +4355,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="42"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="46"/>
       <c r="D151" s="30" t="s">
         <v>115</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="42"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="46"/>
       <c r="D152" s="30" t="s">
         <v>116</v>
       </c>
@@ -4375,9 +4384,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="42"/>
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="46"/>
       <c r="D153" s="10" t="s">
         <v>129</v>
       </c>
@@ -4389,9 +4398,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="42"/>
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="10" t="s">
         <v>149</v>
       </c>
@@ -4408,13 +4417,13 @@
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="43">
+      <c r="A156" s="45">
         <v>25</v>
       </c>
-      <c r="B156" s="43" t="s">
+      <c r="B156" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="41" t="s">
+      <c r="C156" s="47" t="s">
         <v>146</v>
       </c>
       <c r="D156" s="32" t="s">
@@ -4428,9 +4437,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="43"/>
-      <c r="B157" s="43"/>
-      <c r="C157" s="41"/>
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="47"/>
       <c r="D157" s="32" t="s">
         <v>59</v>
       </c>
@@ -4442,9 +4451,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="43"/>
-      <c r="B158" s="43"/>
-      <c r="C158" s="41"/>
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="47"/>
       <c r="D158" s="30"/>
       <c r="E158" s="4" t="s">
         <v>41</v>
@@ -4454,9 +4463,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
-      <c r="C159" s="41"/>
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="47"/>
       <c r="D159" s="30" t="s">
         <v>67</v>
       </c>
@@ -4468,9 +4477,9 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
-      <c r="C160" s="41"/>
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="47"/>
       <c r="D160" s="30" t="s">
         <v>115</v>
       </c>
@@ -4482,9 +4491,9 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="41"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="30" t="s">
         <v>116</v>
       </c>
@@ -4496,9 +4505,9 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="43"/>
-      <c r="B162" s="43"/>
-      <c r="C162" s="41"/>
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="47"/>
       <c r="D162" s="10" t="s">
         <v>129</v>
       </c>
@@ -4510,9 +4519,9 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A163" s="43"/>
-      <c r="B163" s="43"/>
-      <c r="C163" s="41"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="47"/>
       <c r="D163" s="10" t="s">
         <v>141</v>
       </c>
@@ -4530,13 +4539,13 @@
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A165" s="43">
+      <c r="A165" s="45">
         <v>26</v>
       </c>
-      <c r="B165" s="43" t="s">
+      <c r="B165" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C165" s="42" t="s">
+      <c r="C165" s="46" t="s">
         <v>158</v>
       </c>
       <c r="D165" s="32" t="s">
@@ -4550,9 +4559,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="43"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="42"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="46"/>
       <c r="D166" s="32" t="s">
         <v>59</v>
       </c>
@@ -4564,9 +4573,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="42"/>
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="46"/>
       <c r="D167" s="30"/>
       <c r="E167" s="4" t="s">
         <v>41</v>
@@ -4576,9 +4585,9 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="43"/>
-      <c r="B168" s="43"/>
-      <c r="C168" s="42"/>
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="46"/>
       <c r="D168" s="30" t="s">
         <v>67</v>
       </c>
@@ -4590,9 +4599,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="42"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="30" t="s">
         <v>115</v>
       </c>
@@ -4604,9 +4613,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="43"/>
-      <c r="B170" s="43"/>
-      <c r="C170" s="42"/>
+      <c r="A170" s="45"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="46"/>
       <c r="D170" s="30" t="s">
         <v>116</v>
       </c>
@@ -4618,9 +4627,9 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="43"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="42"/>
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="46"/>
       <c r="D171" s="10" t="s">
         <v>129</v>
       </c>
@@ -4632,9 +4641,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
-      <c r="C172" s="42"/>
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="46"/>
       <c r="D172" s="10" t="s">
         <v>159</v>
       </c>
@@ -4651,13 +4660,13 @@
       <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="43">
+      <c r="A174" s="45">
         <v>27</v>
       </c>
-      <c r="B174" s="43" t="s">
+      <c r="B174" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="41" t="s">
+      <c r="C174" s="47" t="s">
         <v>168</v>
       </c>
       <c r="D174" s="35" t="s">
@@ -4671,9 +4680,9 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A175" s="43"/>
-      <c r="B175" s="43"/>
-      <c r="C175" s="41"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="47"/>
       <c r="D175" s="35" t="s">
         <v>59</v>
       </c>
@@ -4685,9 +4694,9 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="43"/>
-      <c r="B176" s="43"/>
-      <c r="C176" s="41"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="47"/>
       <c r="D176" s="33"/>
       <c r="E176" s="4" t="s">
         <v>41</v>
@@ -4697,9 +4706,9 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="43"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="41"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="47"/>
       <c r="D177" s="33" t="s">
         <v>67</v>
       </c>
@@ -4711,9 +4720,9 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="41"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="47"/>
       <c r="D178" s="33" t="s">
         <v>115</v>
       </c>
@@ -4725,9 +4734,9 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="43"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="41"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="47"/>
       <c r="D179" s="33" t="s">
         <v>116</v>
       </c>
@@ -4739,9 +4748,9 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="43"/>
-      <c r="B180" s="43"/>
-      <c r="C180" s="41"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="47"/>
       <c r="D180" s="10" t="s">
         <v>129</v>
       </c>
@@ -4753,9 +4762,9 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="43"/>
-      <c r="B181" s="43"/>
-      <c r="C181" s="41"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="47"/>
       <c r="D181" s="10" t="s">
         <v>159</v>
       </c>
@@ -4767,9 +4776,9 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="43"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="34"/>
-      <c r="C182" s="41"/>
+      <c r="C182" s="47"/>
       <c r="D182" s="10" t="s">
         <v>162</v>
       </c>
@@ -4787,13 +4796,13 @@
       <c r="F183" s="3"/>
     </row>
     <row r="184" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="43">
+      <c r="A184" s="45">
         <v>28</v>
       </c>
-      <c r="B184" s="43" t="s">
+      <c r="B184" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C184" s="41" t="s">
+      <c r="C184" s="47" t="s">
         <v>167</v>
       </c>
       <c r="D184" s="40" t="s">
@@ -4807,9 +4816,9 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="43"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="41"/>
+      <c r="A185" s="45"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="47"/>
       <c r="D185" s="40" t="s">
         <v>59</v>
       </c>
@@ -4821,9 +4830,9 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="43"/>
-      <c r="B186" s="43"/>
-      <c r="C186" s="41"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="47"/>
       <c r="D186" s="38"/>
       <c r="E186" s="4" t="s">
         <v>41</v>
@@ -4833,9 +4842,9 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="43"/>
-      <c r="B187" s="43"/>
-      <c r="C187" s="41"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="47"/>
       <c r="D187" s="38" t="s">
         <v>67</v>
       </c>
@@ -4847,9 +4856,9 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="43"/>
-      <c r="B188" s="43"/>
-      <c r="C188" s="41"/>
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="47"/>
       <c r="D188" s="38" t="s">
         <v>115</v>
       </c>
@@ -4861,9 +4870,9 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="43"/>
-      <c r="B189" s="43"/>
-      <c r="C189" s="41"/>
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="47"/>
       <c r="D189" s="38" t="s">
         <v>116</v>
       </c>
@@ -4875,9 +4884,9 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="43"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="41"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="47"/>
       <c r="D190" s="10" t="s">
         <v>129</v>
       </c>
@@ -4889,9 +4898,9 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="41"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="47"/>
       <c r="D191" s="10" t="s">
         <v>159</v>
       </c>
@@ -4903,9 +4912,9 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="43"/>
-      <c r="B192" s="43"/>
-      <c r="C192" s="41"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="47"/>
       <c r="D192" s="10" t="s">
         <v>169</v>
       </c>
@@ -4917,13 +4926,13 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="43">
+      <c r="A194" s="45">
         <v>29</v>
       </c>
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C194" s="41" t="s">
+      <c r="C194" s="47" t="s">
         <v>173</v>
       </c>
       <c r="D194" s="40" t="s">
@@ -4937,9 +4946,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="43"/>
-      <c r="B195" s="43"/>
-      <c r="C195" s="41"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="47"/>
       <c r="D195" s="40" t="s">
         <v>59</v>
       </c>
@@ -4951,9 +4960,9 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="43"/>
-      <c r="B196" s="43"/>
-      <c r="C196" s="41"/>
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="47"/>
       <c r="D196" s="38"/>
       <c r="E196" s="4" t="s">
         <v>41</v>
@@ -4963,9 +4972,9 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="43"/>
-      <c r="B197" s="43"/>
-      <c r="C197" s="41"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="47"/>
       <c r="D197" s="38" t="s">
         <v>67</v>
       </c>
@@ -4977,9 +4986,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="43"/>
-      <c r="B198" s="43"/>
-      <c r="C198" s="41"/>
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="47"/>
       <c r="D198" s="38" t="s">
         <v>115</v>
       </c>
@@ -4991,9 +5000,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="43"/>
-      <c r="B199" s="43"/>
-      <c r="C199" s="41"/>
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="47"/>
       <c r="D199" s="38" t="s">
         <v>116</v>
       </c>
@@ -5005,9 +5014,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="43"/>
-      <c r="B200" s="43"/>
-      <c r="C200" s="41"/>
+      <c r="A200" s="45"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="47"/>
       <c r="D200" s="10" t="s">
         <v>129</v>
       </c>
@@ -5019,9 +5028,9 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="43"/>
-      <c r="B201" s="43"/>
-      <c r="C201" s="41"/>
+      <c r="A201" s="45"/>
+      <c r="B201" s="45"/>
+      <c r="C201" s="47"/>
       <c r="D201" s="10" t="s">
         <v>159</v>
       </c>
@@ -5033,9 +5042,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A202" s="43"/>
-      <c r="B202" s="43"/>
-      <c r="C202" s="41"/>
+      <c r="A202" s="45"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="47"/>
       <c r="D202" s="10" t="s">
         <v>169</v>
       </c>
@@ -5053,13 +5062,13 @@
       <c r="F203" s="3"/>
     </row>
     <row r="204" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A204" s="43">
+      <c r="A204" s="45">
         <v>30</v>
       </c>
-      <c r="B204" s="43" t="s">
+      <c r="B204" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C204" s="41" t="s">
+      <c r="C204" s="47" t="s">
         <v>179</v>
       </c>
       <c r="D204" s="40" t="s">
@@ -5073,9 +5082,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="43"/>
-      <c r="B205" s="43"/>
-      <c r="C205" s="41"/>
+      <c r="A205" s="45"/>
+      <c r="B205" s="45"/>
+      <c r="C205" s="47"/>
       <c r="D205" s="40" t="s">
         <v>59</v>
       </c>
@@ -5087,9 +5096,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="43"/>
-      <c r="B206" s="43"/>
-      <c r="C206" s="41"/>
+      <c r="A206" s="45"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="47"/>
       <c r="D206" s="38"/>
       <c r="E206" s="4" t="s">
         <v>41</v>
@@ -5099,9 +5108,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="43"/>
-      <c r="B207" s="43"/>
-      <c r="C207" s="41"/>
+      <c r="A207" s="45"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="47"/>
       <c r="D207" s="38" t="s">
         <v>67</v>
       </c>
@@ -5113,9 +5122,9 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="43"/>
-      <c r="B208" s="43"/>
-      <c r="C208" s="41"/>
+      <c r="A208" s="45"/>
+      <c r="B208" s="45"/>
+      <c r="C208" s="47"/>
       <c r="D208" s="38" t="s">
         <v>115</v>
       </c>
@@ -5127,9 +5136,9 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="43"/>
-      <c r="B209" s="43"/>
-      <c r="C209" s="41"/>
+      <c r="A209" s="45"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="47"/>
       <c r="D209" s="38" t="s">
         <v>116</v>
       </c>
@@ -5141,9 +5150,9 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="43"/>
-      <c r="B210" s="43"/>
-      <c r="C210" s="41"/>
+      <c r="A210" s="45"/>
+      <c r="B210" s="45"/>
+      <c r="C210" s="47"/>
       <c r="D210" s="10" t="s">
         <v>129</v>
       </c>
@@ -5155,9 +5164,9 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="43"/>
-      <c r="B211" s="43"/>
-      <c r="C211" s="41"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="47"/>
       <c r="D211" s="10" t="s">
         <v>159</v>
       </c>
@@ -5169,9 +5178,9 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="43"/>
-      <c r="B212" s="43"/>
-      <c r="C212" s="41"/>
+      <c r="A212" s="45"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="47"/>
       <c r="D212" s="10" t="s">
         <v>169</v>
       </c>
@@ -5183,9 +5192,9 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="43"/>
-      <c r="B213" s="43"/>
-      <c r="C213" s="41"/>
+      <c r="A213" s="45"/>
+      <c r="B213" s="45"/>
+      <c r="C213" s="47"/>
       <c r="D213" s="11" t="s">
         <v>181</v>
       </c>
@@ -5200,13 +5209,13 @@
       <c r="C214" s="22"/>
     </row>
     <row r="215" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A215" s="43">
+      <c r="A215" s="45">
         <v>31</v>
       </c>
-      <c r="B215" s="43" t="s">
+      <c r="B215" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C215" s="41" t="s">
+      <c r="C215" s="47" t="s">
         <v>184</v>
       </c>
       <c r="D215" s="40" t="s">
@@ -5220,9 +5229,9 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A216" s="43"/>
-      <c r="B216" s="43"/>
-      <c r="C216" s="41"/>
+      <c r="A216" s="45"/>
+      <c r="B216" s="45"/>
+      <c r="C216" s="47"/>
       <c r="D216" s="40" t="s">
         <v>59</v>
       </c>
@@ -5234,9 +5243,9 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="43"/>
-      <c r="B217" s="43"/>
-      <c r="C217" s="41"/>
+      <c r="A217" s="45"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="47"/>
       <c r="D217" s="38"/>
       <c r="E217" s="4" t="s">
         <v>41</v>
@@ -5246,9 +5255,9 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="43"/>
-      <c r="B218" s="43"/>
-      <c r="C218" s="41"/>
+      <c r="A218" s="45"/>
+      <c r="B218" s="45"/>
+      <c r="C218" s="47"/>
       <c r="D218" s="38" t="s">
         <v>67</v>
       </c>
@@ -5260,9 +5269,9 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="43"/>
-      <c r="B219" s="43"/>
-      <c r="C219" s="41"/>
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="47"/>
       <c r="D219" s="38" t="s">
         <v>115</v>
       </c>
@@ -5274,9 +5283,9 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="43"/>
-      <c r="B220" s="43"/>
-      <c r="C220" s="41"/>
+      <c r="A220" s="45"/>
+      <c r="B220" s="45"/>
+      <c r="C220" s="47"/>
       <c r="D220" s="38" t="s">
         <v>116</v>
       </c>
@@ -5288,9 +5297,9 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="43"/>
-      <c r="B221" s="43"/>
-      <c r="C221" s="41"/>
+      <c r="A221" s="45"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="47"/>
       <c r="D221" s="10" t="s">
         <v>129</v>
       </c>
@@ -5302,9 +5311,9 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="43"/>
-      <c r="B222" s="43"/>
-      <c r="C222" s="41"/>
+      <c r="A222" s="45"/>
+      <c r="B222" s="45"/>
+      <c r="C222" s="47"/>
       <c r="D222" s="10" t="s">
         <v>159</v>
       </c>
@@ -5316,9 +5325,9 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="43"/>
-      <c r="B223" s="43"/>
-      <c r="C223" s="41"/>
+      <c r="A223" s="45"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="47"/>
       <c r="D223" s="10" t="s">
         <v>169</v>
       </c>
@@ -5330,9 +5339,9 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A224" s="43"/>
-      <c r="B224" s="43"/>
-      <c r="C224" s="41"/>
+      <c r="A224" s="45"/>
+      <c r="B224" s="45"/>
+      <c r="C224" s="47"/>
       <c r="D224" s="38" t="s">
         <v>181</v>
       </c>
@@ -5344,13 +5353,13 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="43">
+      <c r="A226" s="45">
         <v>32</v>
       </c>
-      <c r="B226" s="43" t="s">
+      <c r="B226" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C226" s="41" t="s">
+      <c r="C226" s="47" t="s">
         <v>188</v>
       </c>
       <c r="D226" s="40" t="s">
@@ -5364,9 +5373,9 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A227" s="43"/>
-      <c r="B227" s="43"/>
-      <c r="C227" s="41"/>
+      <c r="A227" s="45"/>
+      <c r="B227" s="45"/>
+      <c r="C227" s="47"/>
       <c r="D227" s="40" t="s">
         <v>59</v>
       </c>
@@ -5378,9 +5387,9 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="43"/>
-      <c r="B228" s="43"/>
-      <c r="C228" s="41"/>
+      <c r="A228" s="45"/>
+      <c r="B228" s="45"/>
+      <c r="C228" s="47"/>
       <c r="D228" s="38"/>
       <c r="E228" s="4" t="s">
         <v>41</v>
@@ -5390,9 +5399,9 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="43"/>
-      <c r="B229" s="43"/>
-      <c r="C229" s="41"/>
+      <c r="A229" s="45"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="47"/>
       <c r="D229" s="38" t="s">
         <v>67</v>
       </c>
@@ -5404,9 +5413,9 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="43"/>
-      <c r="B230" s="43"/>
-      <c r="C230" s="41"/>
+      <c r="A230" s="45"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="47"/>
       <c r="D230" s="38" t="s">
         <v>115</v>
       </c>
@@ -5418,9 +5427,9 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" s="43"/>
-      <c r="B231" s="43"/>
-      <c r="C231" s="41"/>
+      <c r="A231" s="45"/>
+      <c r="B231" s="45"/>
+      <c r="C231" s="47"/>
       <c r="D231" s="38" t="s">
         <v>116</v>
       </c>
@@ -5432,9 +5441,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="43"/>
-      <c r="B232" s="43"/>
-      <c r="C232" s="41"/>
+      <c r="A232" s="45"/>
+      <c r="B232" s="45"/>
+      <c r="C232" s="47"/>
       <c r="D232" s="10" t="s">
         <v>129</v>
       </c>
@@ -5446,9 +5455,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="43"/>
-      <c r="B233" s="43"/>
-      <c r="C233" s="41"/>
+      <c r="A233" s="45"/>
+      <c r="B233" s="45"/>
+      <c r="C233" s="47"/>
       <c r="D233" s="10" t="s">
         <v>159</v>
       </c>
@@ -5460,9 +5469,9 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="43"/>
-      <c r="B234" s="43"/>
-      <c r="C234" s="41"/>
+      <c r="A234" s="45"/>
+      <c r="B234" s="45"/>
+      <c r="C234" s="47"/>
       <c r="D234" s="10" t="s">
         <v>169</v>
       </c>
@@ -5474,9 +5483,9 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A235" s="43"/>
-      <c r="B235" s="43"/>
-      <c r="C235" s="41"/>
+      <c r="A235" s="45"/>
+      <c r="B235" s="45"/>
+      <c r="C235" s="47"/>
       <c r="D235" s="38" t="s">
         <v>181</v>
       </c>
@@ -5488,9 +5497,9 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="43"/>
-      <c r="B236" s="43"/>
-      <c r="C236" s="41"/>
+      <c r="A236" s="45"/>
+      <c r="B236" s="45"/>
+      <c r="C236" s="47"/>
       <c r="D236" s="10" t="s">
         <v>189</v>
       </c>
@@ -5502,13 +5511,13 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="43">
+      <c r="A238" s="45">
         <v>33</v>
       </c>
-      <c r="B238" s="43" t="s">
+      <c r="B238" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C238" s="43" t="s">
+      <c r="C238" s="45" t="s">
         <v>194</v>
       </c>
       <c r="D238" s="40" t="s">
@@ -5522,9 +5531,9 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A239" s="43"/>
-      <c r="B239" s="43"/>
-      <c r="C239" s="43"/>
+      <c r="A239" s="45"/>
+      <c r="B239" s="45"/>
+      <c r="C239" s="45"/>
       <c r="D239" s="40" t="s">
         <v>59</v>
       </c>
@@ -5536,9 +5545,9 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="43"/>
-      <c r="B240" s="43"/>
-      <c r="C240" s="43"/>
+      <c r="A240" s="45"/>
+      <c r="B240" s="45"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="38"/>
       <c r="E240" s="4" t="s">
         <v>41</v>
@@ -5548,9 +5557,9 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="43"/>
-      <c r="B241" s="43"/>
-      <c r="C241" s="43"/>
+      <c r="A241" s="45"/>
+      <c r="B241" s="45"/>
+      <c r="C241" s="45"/>
       <c r="D241" s="38" t="s">
         <v>67</v>
       </c>
@@ -5562,9 +5571,9 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="43"/>
-      <c r="B242" s="43"/>
-      <c r="C242" s="43"/>
+      <c r="A242" s="45"/>
+      <c r="B242" s="45"/>
+      <c r="C242" s="45"/>
       <c r="D242" s="38" t="s">
         <v>115</v>
       </c>
@@ -5576,9 +5585,9 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" s="43"/>
-      <c r="B243" s="43"/>
-      <c r="C243" s="43"/>
+      <c r="A243" s="45"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="45"/>
       <c r="D243" s="38" t="s">
         <v>116</v>
       </c>
@@ -5590,9 +5599,9 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="43"/>
-      <c r="B244" s="43"/>
-      <c r="C244" s="43"/>
+      <c r="A244" s="45"/>
+      <c r="B244" s="45"/>
+      <c r="C244" s="45"/>
       <c r="D244" s="10" t="s">
         <v>129</v>
       </c>
@@ -5604,9 +5613,9 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A245" s="43"/>
-      <c r="B245" s="43"/>
-      <c r="C245" s="43"/>
+      <c r="A245" s="45"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="45"/>
       <c r="D245" s="10" t="s">
         <v>159</v>
       </c>
@@ -5618,9 +5627,9 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="43"/>
-      <c r="B246" s="43"/>
-      <c r="C246" s="43"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="45"/>
+      <c r="C246" s="45"/>
       <c r="D246" s="10" t="s">
         <v>169</v>
       </c>
@@ -5632,9 +5641,9 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A247" s="43"/>
-      <c r="B247" s="43"/>
-      <c r="C247" s="43"/>
+      <c r="A247" s="45"/>
+      <c r="B247" s="45"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="38" t="s">
         <v>181</v>
       </c>
@@ -5646,9 +5655,9 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A248" s="43"/>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
+      <c r="A248" s="45"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="45"/>
       <c r="D248" s="10" t="s">
         <v>195</v>
       </c>
@@ -5797,48 +5806,35 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="A226:A236"/>
-    <mergeCell ref="B238:B248"/>
-    <mergeCell ref="A238:A248"/>
-    <mergeCell ref="A184:A192"/>
-    <mergeCell ref="A194:A202"/>
-    <mergeCell ref="A204:A213"/>
-    <mergeCell ref="A215:A224"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="A165:A172"/>
-    <mergeCell ref="A174:A182"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="A138:A145"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="B147:B154"/>
-    <mergeCell ref="C147:C154"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C184:C192"/>
+    <mergeCell ref="B184:B192"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C194:C202"/>
+    <mergeCell ref="B194:B202"/>
+    <mergeCell ref="C174:C182"/>
     <mergeCell ref="C226:C236"/>
     <mergeCell ref="C238:C248"/>
     <mergeCell ref="A2:A7"/>
@@ -5855,47 +5851,60 @@
     <mergeCell ref="C204:C213"/>
     <mergeCell ref="B204:B213"/>
     <mergeCell ref="C215:C224"/>
-    <mergeCell ref="B215:B224"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="C156:C163"/>
-    <mergeCell ref="B138:B144"/>
-    <mergeCell ref="C138:C144"/>
-    <mergeCell ref="C184:C192"/>
-    <mergeCell ref="B184:B192"/>
-    <mergeCell ref="B156:B163"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C194:C202"/>
-    <mergeCell ref="B194:B202"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
     <mergeCell ref="C86:C90"/>
     <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="C122:C128"/>
     <mergeCell ref="B114:B119"/>
     <mergeCell ref="C114:C119"/>
     <mergeCell ref="C106:C112"/>
     <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C174:C182"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="A138:A145"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="B147:B154"/>
+    <mergeCell ref="C147:C154"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="A165:A172"/>
+    <mergeCell ref="A174:A182"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C156:C163"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="A226:A236"/>
+    <mergeCell ref="B238:B248"/>
+    <mergeCell ref="A238:A248"/>
+    <mergeCell ref="A184:A192"/>
+    <mergeCell ref="A194:A202"/>
+    <mergeCell ref="A204:A213"/>
+    <mergeCell ref="A215:A224"/>
+    <mergeCell ref="B215:B224"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5906,8 +5915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486B214A-52D3-4A31-AC6E-2F2AF754B2BB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5951,14 +5960,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="43">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="50" t="s">
         <v>203</v>
       </c>
       <c r="D2" s="40" t="s">
@@ -5971,10 +5980,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="40" t="s">
         <v>59</v>
       </c>
@@ -5986,9 +5995,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="40"/>
       <c r="E4" s="4" t="s">
         <v>41</v>
@@ -5998,41 +6007,41 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="174" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="42" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="40"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="43" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="43">
+      <c r="A8" s="45">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>203</v>
+      <c r="C8" s="50" t="s">
+        <v>227</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>60</v>
@@ -6045,9 +6054,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="40" t="s">
         <v>59</v>
       </c>
@@ -6059,9 +6068,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="40"/>
       <c r="E10" s="4" t="s">
         <v>41</v>
@@ -6071,41 +6080,41 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="174" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="42" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="43" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="43">
+      <c r="A14" s="45">
         <v>3</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>203</v>
+      <c r="C14" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>60</v>
@@ -6118,9 +6127,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="40" t="s">
         <v>59</v>
       </c>
@@ -6132,9 +6141,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="40"/>
       <c r="E16" s="4" t="s">
         <v>41</v>
@@ -6144,42 +6153,42 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="42" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="43" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
